--- a/config_3.9/fish_3d_yutu_random_3.xlsx
+++ b/config_3.9/fish_3d_yutu_random_3.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="111">
   <si>
     <t>change_time_max</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -424,8 +424,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>常规活动鱼2.9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>167,168,169,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>170,171,172,173,174,175,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>176,177,178,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>179,180,181,182,183,184</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>185,186,187</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常规活动鱼</t>
   </si>
   <si>
     <t>161,162,163,164,165,166,</t>
@@ -436,28 +455,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>常规活动鱼boss2.9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>167,168,169,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>170,171,172,173,174,175,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>176,177,178,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>179,180,181,182,183,184</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>185,186,187</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>161,162,163,164,165,166,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常规活动鱼boss</t>
   </si>
 </sst>
 </file>
@@ -535,7 +537,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -550,19 +552,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -598,7 +588,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -638,32 +628,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1221,8 +1201,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D10" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1577,7 +1557,7 @@
       <c r="B16" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="C16" s="21" t="s">
+      <c r="C16" s="20" t="s">
         <v>64</v>
       </c>
       <c r="D16" s="11">
@@ -1599,7 +1579,7 @@
       <c r="B17" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="C17" s="21" t="s">
+      <c r="C17" s="20" t="s">
         <v>66</v>
       </c>
       <c r="D17" s="11">
@@ -1619,10 +1599,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="D18" s="24">
         <v>200</v>
@@ -1636,10 +1616,10 @@
       <c r="G18" s="24"/>
       <c r="H18" s="24"/>
       <c r="I18" s="26">
-        <v>1614643200</v>
+        <v>1615248000</v>
       </c>
       <c r="J18" s="26">
-        <v>1615219199</v>
+        <v>1615823999</v>
       </c>
     </row>
     <row r="19" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -1647,10 +1627,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="C19" s="25" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="D19" s="24">
         <v>200</v>
@@ -1664,10 +1644,10 @@
       <c r="G19" s="24"/>
       <c r="H19" s="24"/>
       <c r="I19" s="26">
-        <v>1614643200</v>
+        <v>1615248000</v>
       </c>
       <c r="J19" s="26">
-        <v>1615219199</v>
+        <v>1615823999</v>
       </c>
     </row>
     <row r="20" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -1675,10 +1655,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="D20" s="24">
         <v>200</v>
@@ -1692,10 +1672,10 @@
       <c r="G20" s="24"/>
       <c r="H20" s="24"/>
       <c r="I20" s="26">
-        <v>1614643200</v>
+        <v>1615248000</v>
       </c>
       <c r="J20" s="26">
-        <v>1615219199</v>
+        <v>1615823999</v>
       </c>
     </row>
     <row r="21" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -1703,10 +1683,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="D21" s="24">
         <v>200</v>
@@ -1720,10 +1700,10 @@
       <c r="G21" s="24"/>
       <c r="H21" s="24"/>
       <c r="I21" s="26">
-        <v>1614643200</v>
+        <v>1615248000</v>
       </c>
       <c r="J21" s="26">
-        <v>1615219199</v>
+        <v>1615823999</v>
       </c>
     </row>
     <row r="22" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -1731,10 +1711,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D22" s="24">
         <v>3000</v>
@@ -1748,309 +1728,289 @@
       <c r="G22" s="24"/>
       <c r="H22" s="24"/>
       <c r="I22" s="26">
-        <v>1614643200</v>
+        <v>1615248000</v>
       </c>
       <c r="J22" s="26">
-        <v>1615219199</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="11">
+        <v>1615823999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="22">
         <v>22</v>
       </c>
-      <c r="B23" s="27" t="s">
+      <c r="B23" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="C23" s="28" t="s">
-        <v>106</v>
-      </c>
-      <c r="D23" s="27">
+      <c r="C23" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="D23" s="22">
         <v>200</v>
       </c>
-      <c r="E23" s="27">
+      <c r="E23" s="22">
         <v>300</v>
       </c>
-      <c r="F23" s="27" t="s">
+      <c r="F23" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="G23" s="27"/>
-      <c r="H23" s="27"/>
-      <c r="I23" s="17">
+      <c r="I23" s="21">
         <v>1613433600</v>
       </c>
-      <c r="J23" s="17">
+      <c r="J23" s="21">
         <v>1614009599</v>
       </c>
     </row>
-    <row r="24" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="11">
+    <row r="24" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="22">
         <v>23</v>
       </c>
-      <c r="B24" s="27" t="s">
+      <c r="B24" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="C24" s="28" t="s">
-        <v>106</v>
-      </c>
-      <c r="D24" s="27">
+      <c r="C24" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="D24" s="22">
         <v>200</v>
       </c>
-      <c r="E24" s="27">
+      <c r="E24" s="22">
         <v>300</v>
       </c>
-      <c r="F24" s="27" t="s">
+      <c r="F24" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="G24" s="27"/>
-      <c r="H24" s="27"/>
-      <c r="I24" s="17">
+      <c r="I24" s="21">
         <v>1613433600</v>
       </c>
-      <c r="J24" s="17">
+      <c r="J24" s="21">
         <v>1614009599</v>
       </c>
     </row>
-    <row r="25" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="11">
+    <row r="25" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="22">
         <v>24</v>
       </c>
-      <c r="B25" s="27" t="s">
+      <c r="B25" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="C25" s="28" t="s">
-        <v>106</v>
-      </c>
-      <c r="D25" s="27">
+      <c r="C25" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="D25" s="22">
         <v>200</v>
       </c>
-      <c r="E25" s="27">
+      <c r="E25" s="22">
         <v>300</v>
       </c>
-      <c r="F25" s="27" t="s">
+      <c r="F25" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="G25" s="27"/>
-      <c r="H25" s="27"/>
-      <c r="I25" s="17">
+      <c r="I25" s="21">
         <v>1613433600</v>
       </c>
-      <c r="J25" s="17">
+      <c r="J25" s="21">
         <v>1614009599</v>
       </c>
     </row>
-    <row r="26" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="11">
+    <row r="26" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="22">
         <v>25</v>
       </c>
-      <c r="B26" s="27" t="s">
+      <c r="B26" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="C26" s="28" t="s">
-        <v>106</v>
-      </c>
-      <c r="D26" s="27">
+      <c r="C26" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="D26" s="22">
         <v>200</v>
       </c>
-      <c r="E26" s="27">
+      <c r="E26" s="22">
         <v>300</v>
       </c>
-      <c r="F26" s="27" t="s">
+      <c r="F26" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="G26" s="27"/>
-      <c r="H26" s="27"/>
-      <c r="I26" s="17">
+      <c r="I26" s="21">
         <v>1613433600</v>
       </c>
-      <c r="J26" s="17">
+      <c r="J26" s="21">
         <v>1614009599</v>
       </c>
     </row>
-    <row r="27" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="11">
+    <row r="27" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="22">
         <v>26</v>
       </c>
-      <c r="B27" s="27" t="s">
+      <c r="B27" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="C27" s="28" t="s">
-        <v>107</v>
-      </c>
-      <c r="D27" s="27">
+      <c r="C27" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="D27" s="22">
         <v>3000</v>
       </c>
-      <c r="E27" s="27">
+      <c r="E27" s="22">
         <v>6000</v>
       </c>
-      <c r="F27" s="27" t="s">
+      <c r="F27" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="G27" s="27"/>
-      <c r="H27" s="27"/>
-      <c r="I27" s="17">
+      <c r="I27" s="21">
         <v>1613433600</v>
       </c>
-      <c r="J27" s="17">
+      <c r="J27" s="21">
         <v>1614009599</v>
       </c>
     </row>
-    <row r="28" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="11">
+    <row r="28" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="22">
         <v>27</v>
       </c>
-      <c r="B28" s="29" t="s">
+      <c r="B28" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="C28" s="30" t="s">
+      <c r="C28" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="D28" s="29">
+      <c r="D28" s="22">
         <v>200</v>
       </c>
-      <c r="E28" s="29">
+      <c r="E28" s="22">
         <v>300</v>
       </c>
-      <c r="F28" s="29" t="s">
+      <c r="F28" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="G28" s="29"/>
-      <c r="H28" s="29"/>
-      <c r="I28" s="22">
+      <c r="I28" s="21">
         <v>1614038400</v>
       </c>
-      <c r="J28" s="22">
+      <c r="J28" s="21">
         <v>1614614399</v>
       </c>
     </row>
-    <row r="29" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="11">
+    <row r="29" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="22">
         <v>28</v>
       </c>
-      <c r="B29" s="29" t="s">
+      <c r="B29" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="C29" s="30" t="s">
-        <v>108</v>
-      </c>
-      <c r="D29" s="29">
+      <c r="C29" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="D29" s="22">
         <v>200</v>
       </c>
-      <c r="E29" s="29">
+      <c r="E29" s="22">
         <v>300</v>
       </c>
-      <c r="F29" s="29" t="s">
+      <c r="F29" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="G29" s="29"/>
-      <c r="H29" s="29"/>
-      <c r="I29" s="22">
+      <c r="I29" s="21">
         <v>1614038400</v>
       </c>
-      <c r="J29" s="22">
+      <c r="J29" s="21">
         <v>1614614399</v>
       </c>
     </row>
-    <row r="30" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="11">
+    <row r="30" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="22">
         <v>29</v>
       </c>
-      <c r="B30" s="29" t="s">
+      <c r="B30" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="C30" s="30" t="s">
+      <c r="C30" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="D30" s="29">
+      <c r="D30" s="22">
         <v>200</v>
       </c>
-      <c r="E30" s="29">
+      <c r="E30" s="22">
         <v>300</v>
       </c>
-      <c r="F30" s="29" t="s">
+      <c r="F30" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="G30" s="29"/>
-      <c r="H30" s="29"/>
-      <c r="I30" s="22">
+      <c r="I30" s="21">
         <v>1614038400</v>
       </c>
-      <c r="J30" s="22">
+      <c r="J30" s="21">
         <v>1614614399</v>
       </c>
     </row>
-    <row r="31" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="11">
+    <row r="31" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="22">
         <v>30</v>
       </c>
-      <c r="B31" s="29" t="s">
+      <c r="B31" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="C31" s="30" t="s">
-        <v>108</v>
-      </c>
-      <c r="D31" s="29">
+      <c r="C31" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="D31" s="22">
         <v>200</v>
       </c>
-      <c r="E31" s="29">
+      <c r="E31" s="22">
         <v>300</v>
       </c>
-      <c r="F31" s="29" t="s">
+      <c r="F31" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="G31" s="29"/>
-      <c r="H31" s="29"/>
-      <c r="I31" s="22">
+      <c r="I31" s="21">
         <v>1614038400</v>
       </c>
-      <c r="J31" s="22">
+      <c r="J31" s="21">
         <v>1614614399</v>
       </c>
     </row>
-    <row r="32" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="11">
+    <row r="32" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="22">
         <v>31</v>
       </c>
-      <c r="B32" s="29" t="s">
+      <c r="B32" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="C32" s="30" t="s">
-        <v>109</v>
-      </c>
-      <c r="D32" s="29">
+      <c r="C32" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="D32" s="22">
         <v>3000</v>
       </c>
-      <c r="E32" s="29">
+      <c r="E32" s="22">
         <v>6000</v>
       </c>
-      <c r="F32" s="29" t="s">
+      <c r="F32" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="G32" s="29"/>
-      <c r="H32" s="29"/>
-      <c r="I32" s="22">
+      <c r="I32" s="21">
         <v>1614038400</v>
       </c>
-      <c r="J32" s="22">
+      <c r="J32" s="21">
         <v>1614614399</v>
       </c>
     </row>
-    <row r="33" spans="3:10" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="C33" s="20"/>
-      <c r="F33" s="32"/>
-      <c r="I33" s="23"/>
-      <c r="J33" s="23"/>
-    </row>
-    <row r="34" spans="3:10" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="C34" s="20"/>
-      <c r="F34" s="32"/>
-      <c r="I34" s="23"/>
-      <c r="J34" s="23"/>
-    </row>
-    <row r="35" spans="3:10" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="C35" s="20"/>
-      <c r="F35" s="32"/>
-      <c r="I35" s="23"/>
-      <c r="J35" s="23"/>
+    <row r="33" spans="3:10" s="22" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="C33" s="19"/>
+      <c r="F33" s="23"/>
+      <c r="I33" s="21"/>
+      <c r="J33" s="21"/>
+    </row>
+    <row r="34" spans="3:10" s="22" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="C34" s="19"/>
+      <c r="F34" s="23"/>
+      <c r="I34" s="21"/>
+      <c r="J34" s="21"/>
+    </row>
+    <row r="35" spans="3:10" s="22" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="C35" s="19"/>
+      <c r="F35" s="23"/>
+      <c r="I35" s="21"/>
+      <c r="J35" s="21"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2497,7 +2457,7 @@
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="14"/>
       <c r="B20" s="14"/>
-      <c r="C20" s="23"/>
+      <c r="C20" s="21"/>
       <c r="D20" s="15"/>
       <c r="E20" s="15"/>
       <c r="F20" s="15"/>
@@ -2507,7 +2467,7 @@
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="14"/>
       <c r="B21" s="14"/>
-      <c r="C21" s="23"/>
+      <c r="C21" s="21"/>
       <c r="D21" s="15"/>
       <c r="E21" s="15"/>
       <c r="F21" s="15"/>
@@ -2517,7 +2477,7 @@
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="14"/>
       <c r="B22" s="14"/>
-      <c r="C22" s="23"/>
+      <c r="C22" s="21"/>
       <c r="D22" s="15"/>
       <c r="E22" s="15"/>
       <c r="F22" s="15"/>
@@ -2527,7 +2487,7 @@
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="14"/>
       <c r="B23" s="14"/>
-      <c r="C23" s="23"/>
+      <c r="C23" s="21"/>
       <c r="D23" s="15"/>
       <c r="E23" s="15"/>
       <c r="F23" s="15"/>
@@ -2778,7 +2738,7 @@
       <c r="A3" s="16">
         <v>2</v>
       </c>
-      <c r="B3" s="18"/>
+      <c r="B3" s="17"/>
       <c r="C3" s="16" t="s">
         <v>89</v>
       </c>
@@ -2793,7 +2753,7 @@
       <c r="A4" s="16">
         <v>3</v>
       </c>
-      <c r="B4" s="18"/>
+      <c r="B4" s="17"/>
       <c r="C4" s="16" t="s">
         <v>89</v>
       </c>
@@ -2808,7 +2768,7 @@
       <c r="A5" s="16">
         <v>4</v>
       </c>
-      <c r="B5" s="19"/>
+      <c r="B5" s="18"/>
       <c r="C5" s="16" t="s">
         <v>94</v>
       </c>
@@ -2823,7 +2783,7 @@
       <c r="A6" s="16">
         <v>5</v>
       </c>
-      <c r="B6" s="20"/>
+      <c r="B6" s="19"/>
       <c r="C6" s="16" t="s">
         <v>97</v>
       </c>
@@ -2836,28 +2796,28 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="16"/>
-      <c r="B7" s="18"/>
+      <c r="B7" s="17"/>
       <c r="C7" s="16"/>
       <c r="D7" s="16"/>
       <c r="E7" s="16"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="16"/>
-      <c r="B8" s="18"/>
+      <c r="B8" s="17"/>
       <c r="C8" s="16"/>
       <c r="D8" s="16"/>
       <c r="E8" s="16"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="16"/>
-      <c r="B9" s="19"/>
+      <c r="B9" s="18"/>
       <c r="C9" s="16"/>
       <c r="D9" s="16"/>
       <c r="E9" s="16"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="16"/>
-      <c r="B10" s="20"/>
+      <c r="B10" s="19"/>
       <c r="C10" s="16"/>
       <c r="D10" s="16"/>
       <c r="E10" s="16"/>

--- a/config_3.9/fish_3d_yutu_random_3.xlsx
+++ b/config_3.9/fish_3d_yutu_random_3.xlsx
@@ -1202,7 +1202,7 @@
   <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1720,7 +1720,7 @@
         <v>3000</v>
       </c>
       <c r="E22" s="24">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="F22" s="24" t="s">
         <v>48</v>
@@ -1852,7 +1852,7 @@
         <v>3000</v>
       </c>
       <c r="E27" s="22">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="F27" s="22" t="s">
         <v>48</v>
@@ -1982,7 +1982,7 @@
         <v>3000</v>
       </c>
       <c r="E32" s="22">
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="F32" s="22" t="s">
         <v>48</v>
